--- a/Project1_TestCases.xlsx
+++ b/Project1_TestCases.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shuch\OneDrive\Desktop\Mars_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7450e39ae99b651f/Desktop/Mars/MarsOnboarding/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A68A61BE-CB89-4102-8CFB-99DA54A3A38A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="87" documentId="13_ncr:1_{A30D371D-E53B-440F-9B36-5D1F9F9BE405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{53650C7B-B598-4264-BCC6-BB64657D4894}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{AF43DA85-B8CB-4ADD-A711-13E1DD7523CA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="3" xr2:uid="{AF43DA85-B8CB-4ADD-A711-13E1DD7523CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Version History" sheetId="1" r:id="rId1"/>
-    <sheet name="Test Scenarios" sheetId="2" r:id="rId2"/>
-    <sheet name="Language Functionality" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId2"/>
+    <sheet name="Test Scenarios" sheetId="2" r:id="rId3"/>
+    <sheet name="Language Functionality" sheetId="5" r:id="rId4"/>
+    <sheet name="Skill Functionality " sheetId="7" r:id="rId5"/>
+    <sheet name="spare1" sheetId="3" r:id="rId6"/>
+    <sheet name="Spare(2)" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="206">
   <si>
     <t xml:space="preserve">         Project Name</t>
   </si>
@@ -109,9 +113,6 @@
     <t>UI Application</t>
   </si>
   <si>
-    <t>Validate the working of Language functionality</t>
-  </si>
-  <si>
     <t>Validate the working of Skill functionality</t>
   </si>
   <si>
@@ -205,19 +206,45 @@
     <t>TC_LF_020</t>
   </si>
   <si>
-    <t xml:space="preserve">TS_001
- Language Functionality
+    <t>TC_LF_021</t>
+  </si>
+  <si>
+    <t>TC_LF_022</t>
+  </si>
+  <si>
+    <t>TC_LF_023</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>1.Click the Add new button
+2.click on language text box
+3.Write the language name
+4.Click on Choose the level drop down
+5.Select the level
+6.Click on Add button
+7. Repeat from steps 1to 6, four times with different choose languge drop down
+selections.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Language name added Pop Up should
+ be appeared
+2. Language name with selected level 
+should be appeared on screen
+3. A list of already added langauges should be appeared after first addition of language
+4. Add New button should not be appaearedafter four credentials added
 </t>
   </si>
   <si>
-    <t>TS_002 
-Skill Functionality</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>P1</t>
+    <t xml:space="preserve">1.Languge name has been added popup appeared.
+2.Language and selected language level are shown on screen.
+3.Pre added language names are appearing for new addition of language
+4. Add New button is not appearing after  addition of four langauges
+</t>
   </si>
   <si>
     <t xml:space="preserve">1. Click on Edit Icon
@@ -295,6 +322,17 @@
 2.Gujrati has been updated to your languages,Popup is coming.</t>
   </si>
   <si>
+    <t>1.Click the Add new button
+2.Click on Cancel button</t>
+  </si>
+  <si>
+    <t>1. Adding a langauge option should be 
+gone</t>
+  </si>
+  <si>
+    <t>1. Adding language option is gone</t>
+  </si>
+  <si>
     <t>1.Click the Add New button
 2.Provide no input to Add Language
  Textbox and ChooseLAnguage Level
@@ -329,6 +367,11 @@
 3. Click on Add button</t>
   </si>
   <si>
+    <t xml:space="preserve">
+1. Language shouldnot be added
+2.Duplicated datal,Popup should come</t>
+  </si>
+  <si>
     <t>1. Language shouldnot be added
 2.Duplicated datal,Popup should come</t>
   </si>
@@ -337,6 +380,9 @@
   </si>
   <si>
     <t>Validatte addition of language by giving duplicate data to language field and selecting any level.</t>
+  </si>
+  <si>
+    <t>Happy path</t>
   </si>
   <si>
     <t xml:space="preserve">1.Open the Application by running Docker and giving URL
@@ -356,6 +402,11 @@
 2.Sign in with valid credentials
 3.Language is added
 4.Edit icon is clicked</t>
+  </si>
+  <si>
+    <t>1.Open the Application by running Docker and giving URL
+ http://localhost:5000/
+2.Sign in with valid credentials</t>
   </si>
   <si>
     <t xml:space="preserve">1.Open the Application by running Docker and giving URL
@@ -393,6 +444,14 @@
     <t>1.Click the Add new button
 2.click on language text box
 3.Enter numbers
+4.Click on Choose the level drop down
+5.Select the level
+6.Click on Add button</t>
+  </si>
+  <si>
+    <t>1.Click the Add new button
+2.click on language text box
+3.Enter only spaces
 4.Click on Choose the level drop down
 5.Select the level
 6.Click on Add button</t>
@@ -418,6 +477,12 @@
 th e proper placeholders.</t>
   </si>
   <si>
+    <t>5.Validate the cancelling of addition of new langauge on Description page.</t>
+  </si>
+  <si>
+    <t>6.Validate Addition of four Languages with differnet Language Levels by giving valid input.</t>
+  </si>
+  <si>
     <t xml:space="preserve">10.Validate whether the leading and trailing
 spaces entered into language fieled are
  trimmed. </t>
@@ -427,14 +492,80 @@
 Languages.</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>12.Validate the edit functionality for Langauge</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>13.Validate the cancelation of edit of langauge and language level</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
     <t>14.Validate the updating of language with valid input</t>
   </si>
   <si>
     <t>15.Validate the updating of language level with valid input.</t>
+  </si>
+  <si>
+    <t>16.Validate the edit functionality for Langauge Level</t>
   </si>
   <si>
     <t xml:space="preserve">17.Validate the delete of added Language and language level
  </t>
+  </si>
+  <si>
+    <t>18.Validate Language functionality in
+ all the supported environment</t>
+  </si>
+  <si>
+    <t>6a.Validate the addition of new langauge by providing no input</t>
+  </si>
+  <si>
+    <t>6b.Validating the addition of Language f
+by providing valid input to Language field but not selecting any option from level
+ dropdown</t>
+  </si>
+  <si>
+    <t>6c.Validatte addition of language by giving duplicate data to language field and selecting any level.</t>
+  </si>
+  <si>
+    <t>9.Validate that Language field accept only
+ spaces.</t>
   </si>
   <si>
     <t>9.Validate the addition of new langauge by 
@@ -447,11 +578,24 @@
 3.Less than four or no language should be added</t>
   </si>
   <si>
+    <t>8.Validate that Language field accept special
+characters.</t>
+  </si>
+  <si>
+    <t>7.Validate that Language field accept
+ numbers.</t>
+  </si>
+  <si>
     <t>1.Proper Breadcrumb,Page Heading,Page Title should be displayed
 on  Language section of Profile Page.</t>
   </si>
   <si>
     <t>1.Validate Breadcrumb,Page Heading,Page Title of Language section of Profile Page.</t>
+  </si>
+  <si>
+    <t>4.Validate navigating to other pages using the
+options or links provided on language section
+of Profile Page.</t>
   </si>
   <si>
     <t>NA</t>
@@ -483,6 +627,25 @@
   <si>
     <t>1. Proper Placeholder texts are displayed
  in these fields</t>
+  </si>
+  <si>
+    <t>1.Language functionality should work in 
+all the supported environments</t>
+  </si>
+  <si>
+    <t>1. User should be navigated to the 
+respective pages without any problems</t>
+  </si>
+  <si>
+    <t>1. User ia able to navigate to the
+ respective pages without any problems</t>
+  </si>
+  <si>
+    <t>1. Adding a langauge option should be 
+disappeared.</t>
+  </si>
+  <si>
+    <t>1. Adding language option is disappeared.</t>
   </si>
   <si>
     <t>1.Click the Add new button
@@ -521,6 +684,10 @@
     <t xml:space="preserve">1. Spaces should not be added as
  Language.
 </t>
+  </si>
+  <si>
+    <t>1.Special Characters has been 
+added as Language.</t>
   </si>
   <si>
     <t>1. Spaces has been added as
@@ -666,7 +833,87 @@
     <t>Comment</t>
   </si>
   <si>
+    <t>Test Scenarios'!A1</t>
+  </si>
+  <si>
     <t>&lt;&lt;Test Scenarios</t>
+  </si>
+  <si>
+    <t>Project1_TestCases.xlsx</t>
+  </si>
+  <si>
+    <t>Validate that Language field for
+ numbers as input.</t>
+  </si>
+  <si>
+    <t>Validate that Language field for special
+characters as input.</t>
+  </si>
+  <si>
+    <t>Validate the addition of new langauge by 
+providing  only space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate whether the leading and trailing
+spaces entered into language fieled are
+ trimmed. </t>
+  </si>
+  <si>
+    <t>Validate addtion of more than four 
+Languages.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate the edit functionality for Langauge </t>
+  </si>
+  <si>
+    <t>Validate the cancelation of edit of langauge and language level.</t>
+  </si>
+  <si>
+    <t>Validate the updating of language with valid input</t>
+  </si>
+  <si>
+    <t>Validate the updating of language level with valid input.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate the delete of added Language and language level
+ </t>
+  </si>
+  <si>
+    <t>Validate Breadcrumb,Page Heading,Page Title of Language section of Profile Page.</t>
+  </si>
+  <si>
+    <t>Validate the UI of the Language Page.
+of Language page.</t>
+  </si>
+  <si>
+    <t>Validate that all fields in Language Page have 
+th e proper placeholders.</t>
+  </si>
+  <si>
+    <t>Validate Language functionality in
+  Microsoft Edge and Chrome.</t>
+  </si>
+  <si>
+    <t>Validate that Language field for large number of characters as input.</t>
+  </si>
+  <si>
+    <t>1.Click the Add New button
+2.Provide large input to Add Language
+ Textbox and ChooseLAnguage Level
+dropdown
+3. Click on Add button</t>
+  </si>
+  <si>
+    <t>Large number of
+ characters</t>
+  </si>
+  <si>
+    <t>Ts_002
+Skill functionality</t>
+  </si>
+  <si>
+    <t>Ts_001
+Language functionality</t>
   </si>
 </sst>
 </file>
@@ -716,12 +963,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -738,6 +997,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -877,7 +1142,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -893,114 +1158,240 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="69">
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -1189,13 +1580,6 @@
         <top style="thin">
           <color rgb="FF000000"/>
         </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1218,6 +1602,13 @@
       <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -1228,6 +1619,707 @@
         </right>
         <top/>
         <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1240,20 +2332,6 @@
         </right>
         <top/>
         <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
       </border>
     </dxf>
     <dxf>
@@ -1286,12 +2364,8 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D6ACBEF-5000-40A4-9592-3503FEDB3B50}" name="Table1" displayName="Table1" ref="F5:H7" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D6ACBEF-5000-40A4-9592-3503FEDB3B50}" name="Table1" displayName="Table1" ref="F5:H7" totalsRowShown="0" headerRowDxfId="68" headerRowBorderDxfId="67">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{C7F519E5-FA18-4E38-B379-0181C186886C}" name="         Project Name"/>
     <tableColumn id="2" xr3:uid="{7756B75F-5F82-4BBA-873A-A8D8497217AF}" name="          Mars"/>
@@ -1302,7 +2376,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4358E52C-6A7E-4A29-8D97-F06408E34698}" name="Table2" displayName="Table2" ref="A1:B6" totalsRowShown="0" headerRowDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4358E52C-6A7E-4A29-8D97-F06408E34698}" name="Table2" displayName="Table2" ref="A1:B6" totalsRowShown="0" headerRowDxfId="66" headerRowBorderDxfId="65" tableBorderDxfId="64">
   <autoFilter ref="A1:B6" xr:uid="{4358E52C-6A7E-4A29-8D97-F06408E34698}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{B4BAD77E-51A4-4A14-AB77-041664D26CAB}" name="Project Name"/>
@@ -1327,19 +2401,76 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{24AD2854-6DEF-4B28-A715-650439EC72ED}" name="Table69" displayName="Table69" ref="A1:K34" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14" headerRowBorderDxfId="12" tableBorderDxfId="13" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{24AD2854-6DEF-4B28-A715-650439EC72ED}" name="Table69" displayName="Table69" ref="A1:K34" totalsRowShown="0" headerRowDxfId="63" dataDxfId="61" headerRowBorderDxfId="62" tableBorderDxfId="60" totalsRowBorderDxfId="59">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{EA9A4D94-210B-4919-9DC7-0796988B4067}" name="Test Case ID" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{ED3FC33D-18BB-4EBB-B558-1D063E9D8EAB}" name="Test Scenario" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{DDADE7C8-FC44-4A13-A1C2-47499C23A1B1}" name="Test Case Title" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{F9C22EDF-B482-4463-8DF1-523A17A3C201}" name="Pre-requisites" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{1C672495-798D-4872-AEE9-70AC426A5314}" name="Test Steps" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{42738FE8-F797-4854-B144-8825C50A3041}" name="Test Data" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{C0E7CD13-F75D-4BA2-999C-9FDAB8C3B70A}" name="Expected Result (ER)" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{FD5AB810-E732-412C-92D8-4BC9C55B9064}" name="Actual Result" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{949B8977-7FCF-4FC7-A061-1DCDEC1A1114}" name="Priority" dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{ED1CC454-332A-40B6-BAF1-2785DA8DB6E7}" name="Result" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{738EE3DF-08EE-4E51-8017-14543625FF53}" name="Comments" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{EA9A4D94-210B-4919-9DC7-0796988B4067}" name="Test Case ID" dataDxfId="58"/>
+    <tableColumn id="2" xr3:uid="{ED3FC33D-18BB-4EBB-B558-1D063E9D8EAB}" name="Test Scenario" dataDxfId="57"/>
+    <tableColumn id="3" xr3:uid="{DDADE7C8-FC44-4A13-A1C2-47499C23A1B1}" name="Test Case Title" dataDxfId="56"/>
+    <tableColumn id="4" xr3:uid="{F9C22EDF-B482-4463-8DF1-523A17A3C201}" name="Pre-requisites" dataDxfId="55"/>
+    <tableColumn id="5" xr3:uid="{1C672495-798D-4872-AEE9-70AC426A5314}" name="Test Steps" dataDxfId="54"/>
+    <tableColumn id="6" xr3:uid="{42738FE8-F797-4854-B144-8825C50A3041}" name="Test Data" dataDxfId="53"/>
+    <tableColumn id="7" xr3:uid="{C0E7CD13-F75D-4BA2-999C-9FDAB8C3B70A}" name="Expected Result (ER)" dataDxfId="52"/>
+    <tableColumn id="8" xr3:uid="{FD5AB810-E732-412C-92D8-4BC9C55B9064}" name="Actual Result" dataDxfId="51"/>
+    <tableColumn id="9" xr3:uid="{949B8977-7FCF-4FC7-A061-1DCDEC1A1114}" name="Priority" dataDxfId="50"/>
+    <tableColumn id="10" xr3:uid="{ED1CC454-332A-40B6-BAF1-2785DA8DB6E7}" name="Result" dataDxfId="49"/>
+    <tableColumn id="11" xr3:uid="{738EE3DF-08EE-4E51-8017-14543625FF53}" name="Comments" dataDxfId="48"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{2FEB5ED0-166B-435F-B06E-A33D03E7A98B}" name="Table6911" displayName="Table6911" ref="A1:K34" totalsRowShown="0" headerRowDxfId="47" dataDxfId="45" headerRowBorderDxfId="46" tableBorderDxfId="44" totalsRowBorderDxfId="43">
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{B92A1262-7179-4D46-8222-F3FC97118B09}" name="Test Case ID" dataDxfId="42"/>
+    <tableColumn id="2" xr3:uid="{44F1E19E-F019-40B5-A114-A8932ECA13E1}" name="Test Scenario" dataDxfId="41"/>
+    <tableColumn id="3" xr3:uid="{6622DC41-517B-4D33-B06E-4DCF8B9F87AA}" name="Test Case Title" dataDxfId="40"/>
+    <tableColumn id="4" xr3:uid="{E6003823-76ED-4DB8-AE75-7A5A3B533F7E}" name="Pre-requisites" dataDxfId="39"/>
+    <tableColumn id="5" xr3:uid="{FC9384B1-B4CC-4382-950F-1FC1EBEF1E66}" name="Test Steps" dataDxfId="38"/>
+    <tableColumn id="6" xr3:uid="{C5C6CA9D-F220-47B0-9497-8CFBC1B70EEC}" name="Test Data" dataDxfId="37"/>
+    <tableColumn id="7" xr3:uid="{B0CF89FC-7F23-4DEC-8CA9-34594F08E9B1}" name="Expected Result (ER)" dataDxfId="36"/>
+    <tableColumn id="8" xr3:uid="{A5C146CE-152B-4EFD-BE78-FF700EEA17EF}" name="Actual Result" dataDxfId="35"/>
+    <tableColumn id="9" xr3:uid="{F9BF98C0-7DDF-438A-BA3A-5A05AC03B159}" name="Priority" dataDxfId="34"/>
+    <tableColumn id="10" xr3:uid="{76C11526-3D94-4F7F-A32E-F734BF315916}" name="Result" dataDxfId="33"/>
+    <tableColumn id="11" xr3:uid="{0D1B9A95-E7A1-46E0-BCB9-FEFB534EC5E5}" name="Comments" dataDxfId="32"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{0D980488-5EF1-47A3-8B84-845009B2D4E0}" name="Table6" displayName="Table6" ref="A1:K34" totalsRowShown="0" headerRowDxfId="31" dataDxfId="29" headerRowBorderDxfId="30" tableBorderDxfId="28" totalsRowBorderDxfId="27">
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{6C717689-93E2-40C2-BAC9-58D906F20016}" name="Test Case ID" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{92331682-88A0-430F-824E-B9649DCF744A}" name="Test Scenario" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{D17FA5E1-D504-47FD-B094-F5D9519818AB}" name="Test Case Title" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{D1C73648-3F4E-4CB1-9CCF-6DA70C50AD74}" name="Pre-requisites" dataDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{E910F639-FFAD-43C9-88DD-76EA7147A829}" name="Test Steps" dataDxfId="22"/>
+    <tableColumn id="6" xr3:uid="{F1768C8B-C82A-4680-931D-0A239E2A76DC}" name="Test Data" dataDxfId="21"/>
+    <tableColumn id="7" xr3:uid="{791FF83F-2CE0-4795-ACE3-33ECB4573618}" name="Expected Result (ER)" dataDxfId="20"/>
+    <tableColumn id="8" xr3:uid="{ABF76B1E-A3C5-4241-921B-EA10A429655F}" name="Actual Result" dataDxfId="19"/>
+    <tableColumn id="9" xr3:uid="{95F5F7E4-2E7D-4B6E-B26B-8EA1803A0BC0}" name="Priority" dataDxfId="18"/>
+    <tableColumn id="10" xr3:uid="{CC5E18FE-E1F7-4D93-8C9F-439054BDDF57}" name="Result" dataDxfId="17"/>
+    <tableColumn id="11" xr3:uid="{DDCAE6D7-A9BC-4A55-B156-3EB7056E6C98}" name="Comments" dataDxfId="16"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{0216F68F-968B-41B9-BF4A-65C61C5CD4AE}" name="Table6910" displayName="Table6910" ref="A1:K33" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{CF3A8418-41B9-4FB5-B48E-91C61C3B9D03}" name="Test Case ID" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{6927243F-D952-49F6-867B-1CDDE9EC24C9}" name="Test Scenario" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{76465241-3505-4C35-A09A-B94DB4A4A80D}" name="Test Case Title" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{D154B81F-C35A-4015-8BC6-74B12BBFDDB5}" name="Pre-requisites" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{02CE88EE-D0F2-4FB9-BB32-526F7FD84D43}" name="Test Steps" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{22D4A9A9-D658-4299-867D-22ED09803B2A}" name="Test Data" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{DDC6A73C-DB15-42DE-9571-D46D7DBE1E40}" name="Expected Result (ER)" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{22B34241-9CA3-40A0-B82F-F44214A2E252}" name="Actual Result" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{10AC9599-2411-4E16-97BA-F65E1F2C17A9}" name="Priority" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{B0581110-1218-428E-978F-ADD756874143}" name="Result" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{77BF0184-D0BE-4C13-B198-F9E13D651BE9}" name="Comments" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1642,10 +2773,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{454FE127-3435-4151-A9B0-1DAA6C72804B}">
-  <dimension ref="D1:H7"/>
+  <dimension ref="F1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="F6" sqref="F6:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1658,7 +2789,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="G1" s="42"/>
+      <c r="G1" s="67" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="5" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F5" s="1" t="s">
@@ -1668,7 +2801,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>154</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="6:8" x14ac:dyDescent="0.35">
@@ -1689,6 +2822,9 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="G1" location="'Test Scenarios'!A1" display="'Test Scenarios'!A1" xr:uid="{F8A37085-A376-4CAD-B0BD-3B54A4F5E511}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
@@ -1698,11 +2834,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{849829B8-4FF2-45EF-A8A9-63DD7367883B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8896BBC9-E8FD-45CA-8073-BE6269FCC872}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1776,32 +2930,29 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="41" t="s">
-        <v>55</v>
+    <row r="10" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="68" t="s">
+        <v>205</v>
       </c>
       <c r="B10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
       <c r="D10" t="s">
         <v>58</v>
       </c>
       <c r="E10">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="41" t="s">
-        <v>56</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="68" t="s">
+        <v>204</v>
       </c>
       <c r="B11" t="s">
         <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
         <v>58</v>
@@ -1810,12 +2961,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A10" location="'Language Functionality'!A1" display="'Language Functionality'!A1" xr:uid="{7CA2D863-B875-4C55-95AC-C998012887DC}"/>
-    <hyperlink ref="A11" location="'Skill Functionality '!A1" display="'Skill Functionality '!A1" xr:uid="{5D080FA7-9B07-4690-B3FC-A23ED11952A6}"/>
+    <hyperlink ref="A10" location="'Language Functionality'!A1" display="'Language Functionality'!A1" xr:uid="{90A7707F-5A64-4A77-A551-ADF9EA296FFC}"/>
+    <hyperlink ref="A11" location="'Skill Functionality '!A1" display="'Skill Functionality '!A1" xr:uid="{B2B711C0-332E-45DB-AFF7-8EFB18437825}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="2">
@@ -1825,926 +2979,896 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67804EFD-3018-4667-8959-5509EA1104F9}">
   <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A23" sqref="A23:G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.1796875" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.08984375" style="10" customWidth="1"/>
-    <col min="5" max="5" width="34.90625" style="10" customWidth="1"/>
-    <col min="6" max="6" width="21.453125" style="10" customWidth="1"/>
-    <col min="7" max="7" width="34.6328125" style="10" customWidth="1"/>
-    <col min="8" max="8" width="35.90625" style="10" customWidth="1"/>
-    <col min="9" max="9" width="9" style="10" customWidth="1"/>
-    <col min="10" max="10" width="8.7265625" style="10"/>
-    <col min="11" max="11" width="11.90625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="11" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.08984375" style="9" customWidth="1"/>
+    <col min="5" max="5" width="34.90625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="21.453125" style="9" customWidth="1"/>
+    <col min="7" max="7" width="34.6328125" style="9" customWidth="1"/>
+    <col min="8" max="8" width="35.90625" style="9" customWidth="1"/>
+    <col min="9" max="9" width="9" style="9" customWidth="1"/>
+    <col min="10" max="10" width="8.7265625" style="9"/>
+    <col min="11" max="11" width="11.90625" style="9" customWidth="1"/>
     <col min="12" max="16384" width="8.7265625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="I1" s="7" t="s">
         <v>19</v>
       </c>
       <c r="J1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="8" t="s">
+    </row>
+    <row r="2" spans="1:11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="70"/>
+      <c r="B2" s="71" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="54" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="59" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="60" t="s">
+        <v>159</v>
+      </c>
+      <c r="D3" s="60" t="s">
+        <v>163</v>
+      </c>
+      <c r="E3" s="59" t="s">
+        <v>160</v>
+      </c>
+      <c r="F3" s="59" t="s">
+        <v>130</v>
+      </c>
+      <c r="G3" s="60" t="s">
+        <v>162</v>
+      </c>
+      <c r="H3" s="60" t="s">
+        <v>161</v>
+      </c>
+      <c r="I3" s="59" t="s">
+        <v>132</v>
+      </c>
+      <c r="J3" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" s="61"/>
+    </row>
+    <row r="4" spans="1:11" s="54" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="56" t="s">
+        <v>164</v>
+      </c>
+      <c r="D4" s="56" t="s">
+        <v>165</v>
+      </c>
+      <c r="E4" s="56" t="s">
+        <v>166</v>
+      </c>
+      <c r="F4" s="55" t="s">
+        <v>130</v>
+      </c>
+      <c r="G4" s="56" t="s">
+        <v>167</v>
+      </c>
+      <c r="H4" s="56" t="s">
+        <v>168</v>
+      </c>
+      <c r="I4" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="K4" s="57"/>
+    </row>
+    <row r="5" spans="1:11" s="54" customFormat="1" ht="174" x14ac:dyDescent="0.35">
+      <c r="A5" s="72" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="74" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5" s="74" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" s="74" t="s">
+        <v>172</v>
+      </c>
+      <c r="F5" s="74" t="s">
+        <v>169</v>
+      </c>
+      <c r="G5" s="74" t="s">
+        <v>170</v>
+      </c>
+      <c r="H5" s="74" t="s">
+        <v>171</v>
+      </c>
+      <c r="I5" s="73" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="K5" s="57"/>
+    </row>
+    <row r="6" spans="1:11" s="54" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="72" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="74" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="74" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="74" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6" s="73" t="s">
+        <v>130</v>
+      </c>
+      <c r="G6" s="74" t="s">
+        <v>83</v>
+      </c>
+      <c r="H6" s="74" t="s">
+        <v>84</v>
+      </c>
+      <c r="I6" s="73" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="K6" s="57"/>
+    </row>
+    <row r="7" spans="1:11" s="54" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="74" t="s">
+        <v>173</v>
+      </c>
+      <c r="D7" s="74" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" s="74" t="s">
+        <v>85</v>
+      </c>
+      <c r="F7" s="73" t="s">
+        <v>174</v>
+      </c>
+      <c r="G7" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="H7" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="I7" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="K7" s="57"/>
+    </row>
+    <row r="8" spans="1:11" s="54" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="72" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="74" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" s="74" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" s="74" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8" s="74" t="s">
+        <v>175</v>
+      </c>
+      <c r="G8" s="74" t="s">
+        <v>146</v>
+      </c>
+      <c r="H8" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="I8" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="K8" s="57"/>
+    </row>
+    <row r="9" spans="1:11" s="54" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="72" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="74" t="s">
+        <v>187</v>
+      </c>
+      <c r="D9" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="E9" s="74" t="s">
+        <v>102</v>
+      </c>
+      <c r="F9" s="73" t="s">
+        <v>178</v>
+      </c>
+      <c r="G9" s="74" t="s">
+        <v>147</v>
+      </c>
+      <c r="H9" s="74" t="s">
+        <v>148</v>
+      </c>
+      <c r="I9" s="73" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" s="73" t="s">
+        <v>72</v>
+      </c>
+      <c r="K9" s="75"/>
+    </row>
+    <row r="10" spans="1:11" s="54" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="72" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="74" t="s">
+        <v>188</v>
+      </c>
+      <c r="D10" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="E10" s="74" t="s">
+        <v>101</v>
+      </c>
+      <c r="F10" s="73" t="s">
+        <v>177</v>
+      </c>
+      <c r="G10" s="74" t="s">
+        <v>149</v>
+      </c>
+      <c r="H10" s="66" t="s">
+        <v>152</v>
+      </c>
+      <c r="I10" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" s="65" t="s">
+        <v>72</v>
+      </c>
+      <c r="K10" s="57"/>
+    </row>
+    <row r="11" spans="1:11" s="54" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="72" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="74" t="s">
+        <v>189</v>
+      </c>
+      <c r="D11" s="74" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" s="74" t="s">
+        <v>143</v>
+      </c>
+      <c r="F11" s="73" t="s">
+        <v>176</v>
+      </c>
+      <c r="G11" s="74" t="s">
+        <v>150</v>
+      </c>
+      <c r="H11" s="56" t="s">
+        <v>152</v>
+      </c>
+      <c r="I11" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" s="65" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="57"/>
+    </row>
+    <row r="12" spans="1:11" s="54" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="56" t="s">
+        <v>190</v>
+      </c>
+      <c r="D12" s="56" t="s">
+        <v>124</v>
+      </c>
+      <c r="E12" s="56" t="s">
+        <v>104</v>
+      </c>
+      <c r="F12" s="55"/>
+      <c r="G12" s="56" t="s">
+        <v>153</v>
+      </c>
+      <c r="H12" s="56" t="s">
+        <v>154</v>
+      </c>
+      <c r="I12" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="J12" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="K12" s="57"/>
+    </row>
+    <row r="13" spans="1:11" s="54" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="72" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="72" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="76" t="s">
+        <v>191</v>
+      </c>
+      <c r="D13" s="76" t="s">
+        <v>99</v>
+      </c>
+      <c r="E13" s="76" t="s">
+        <v>155</v>
+      </c>
+      <c r="F13" s="72" t="s">
+        <v>130</v>
+      </c>
+      <c r="G13" s="76" t="s">
+        <v>156</v>
+      </c>
+      <c r="I13" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="J13" s="62" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="54" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+      <c r="A14" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="56" t="s">
+        <v>192</v>
+      </c>
+      <c r="D14" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="E14" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="55" t="s">
+        <v>130</v>
+      </c>
+      <c r="G14" s="56" t="s">
+        <v>63</v>
+      </c>
+      <c r="H14" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="I14" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="J14" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="K14" s="57"/>
+    </row>
+    <row r="15" spans="1:11" s="80" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="80" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="82" t="s">
+        <v>193</v>
+      </c>
+      <c r="D15" s="82" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" s="82" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="81" t="s">
+        <v>130</v>
+      </c>
+      <c r="G15" s="82" t="s">
+        <v>67</v>
+      </c>
+      <c r="H15" s="82" t="s">
+        <v>66</v>
+      </c>
+      <c r="I15" s="81" t="s">
+        <v>68</v>
+      </c>
+      <c r="J15" s="81" t="s">
+        <v>57</v>
+      </c>
+      <c r="K15" s="83"/>
+    </row>
+    <row r="16" spans="1:11" s="54" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="72" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="74" t="s">
+        <v>194</v>
+      </c>
+      <c r="D16" s="74" t="s">
+        <v>95</v>
+      </c>
+      <c r="E16" s="74" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" s="74" t="s">
+        <v>179</v>
+      </c>
+      <c r="G16" s="74" t="s">
+        <v>70</v>
+      </c>
+      <c r="H16" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="I16" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="J16" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="K16" s="57"/>
+    </row>
+    <row r="17" spans="1:11" s="54" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="72" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="74" t="s">
+        <v>195</v>
+      </c>
+      <c r="D17" s="74" t="s">
+        <v>95</v>
+      </c>
+      <c r="E17" s="74" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" s="73" t="s">
+        <v>130</v>
+      </c>
+      <c r="G17" s="74" t="s">
+        <v>70</v>
+      </c>
+      <c r="H17" s="74" t="s">
+        <v>78</v>
+      </c>
+      <c r="I17" s="73" t="s">
+        <v>68</v>
+      </c>
+      <c r="J17" s="73" t="s">
+        <v>57</v>
+      </c>
+      <c r="K17" s="75"/>
+    </row>
+    <row r="18" spans="1:11" s="54" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A18" s="77" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="78" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="79" t="s">
+        <v>196</v>
+      </c>
+      <c r="D18" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" s="79" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" s="78" t="s">
+        <v>130</v>
+      </c>
+      <c r="G18" s="74" t="s">
+        <v>76</v>
+      </c>
+      <c r="H18" s="56" t="s">
+        <v>77</v>
+      </c>
+      <c r="I18" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="J18" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="K18" s="57"/>
+    </row>
+    <row r="19" spans="1:11" s="54" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="54" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" s="43" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="42"/>
-      <c r="B2" s="44" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="31" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="34" t="s">
+      <c r="B19" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="58" t="s">
+        <v>197</v>
+      </c>
+      <c r="D19" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="E19" s="54" t="s">
+        <v>133</v>
+      </c>
+      <c r="F19" s="54" t="s">
         <v>130</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="G19" s="58" t="s">
+        <v>127</v>
+      </c>
+      <c r="H19" s="58" t="s">
+        <v>131</v>
+      </c>
+      <c r="I19" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="J19" s="62" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="54" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="58" t="s">
+        <v>198</v>
+      </c>
+      <c r="D20" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="F20" s="54" t="s">
+        <v>130</v>
+      </c>
+      <c r="G20" s="58" t="s">
         <v>134</v>
       </c>
-      <c r="E3" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="F3" s="33" t="s">
-        <v>107</v>
-      </c>
-      <c r="G3" s="34" t="s">
-        <v>133</v>
-      </c>
-      <c r="H3" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="I3" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="J3" s="38" t="s">
+      <c r="H20" s="58" t="s">
+        <v>135</v>
+      </c>
+      <c r="I20" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="J20" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="K3" s="35"/>
-    </row>
-    <row r="4" spans="1:11" s="31" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="29" t="s">
-        <v>135</v>
-      </c>
-      <c r="D4" s="29" t="s">
+    </row>
+    <row r="21" spans="1:11" s="54" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="56" t="s">
+        <v>199</v>
+      </c>
+      <c r="D21" s="56" t="s">
+        <v>100</v>
+      </c>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55" t="s">
+        <v>130</v>
+      </c>
+      <c r="G21" s="56" t="s">
         <v>136</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="H21" s="56" t="s">
         <v>137</v>
       </c>
-      <c r="F4" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="G4" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="H4" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="I4" s="28" t="s">
+      <c r="I21" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="J21" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="K21" s="57"/>
+    </row>
+    <row r="22" spans="1:11" s="54" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="58" t="s">
+        <v>200</v>
+      </c>
+      <c r="D22" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="G22" s="58" t="s">
+        <v>182</v>
+      </c>
+      <c r="H22" s="58" t="s">
+        <v>181</v>
+      </c>
+      <c r="I22" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="J4" s="37" t="s">
+      <c r="J22" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="K4" s="30"/>
-    </row>
-    <row r="5" spans="1:11" s="31" customFormat="1" ht="174" x14ac:dyDescent="0.35">
-      <c r="A5" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="D5" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="E5" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="F5" s="29" t="s">
-        <v>140</v>
-      </c>
-      <c r="G5" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="H5" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="I5" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="J5" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="K5" s="30"/>
-    </row>
-    <row r="6" spans="1:11" s="31" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="D6" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="E6" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="F6" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="G6" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="H6" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="I6" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="J6" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="K6" s="30"/>
-    </row>
-    <row r="7" spans="1:11" s="31" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="D7" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="E7" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="F7" s="28" t="s">
-        <v>145</v>
-      </c>
-      <c r="G7" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="H7" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="I7" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="J7" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="K7" s="30"/>
-    </row>
-    <row r="8" spans="1:11" s="31" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="D8" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="E8" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="F8" s="29" t="s">
-        <v>146</v>
-      </c>
-      <c r="G8" s="29" t="s">
-        <v>118</v>
-      </c>
-      <c r="H8" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="I8" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="J8" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="K8" s="30"/>
-    </row>
-    <row r="9" spans="1:11" s="31" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="D9" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="E9" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="G9" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="H9" s="29" t="s">
-        <v>120</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="J9" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="K9" s="30"/>
-    </row>
-    <row r="10" spans="1:11" s="31" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="D10" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="E10" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="F10" s="28" t="s">
-        <v>148</v>
-      </c>
-      <c r="G10" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="H10" s="40" t="s">
-        <v>123</v>
-      </c>
-      <c r="I10" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="J10" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="K10" s="30"/>
-    </row>
-    <row r="11" spans="1:11" s="31" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="D11" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="E11" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="F11" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="G11" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="H11" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="I11" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="J11" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="K11" s="30"/>
-    </row>
-    <row r="12" spans="1:11" s="31" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="29" t="s">
+    </row>
+    <row r="23" spans="1:11" s="45" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="84" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="85" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="74" t="s">
+        <v>201</v>
+      </c>
+      <c r="D23" s="74" t="s">
         <v>98</v>
       </c>
-      <c r="D12" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="E12" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="F12" s="28"/>
-      <c r="G12" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="H12" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="I12" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="J12" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="K12" s="30"/>
-    </row>
-    <row r="13" spans="1:11" s="31" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="D13" s="32" t="s">
-        <v>90</v>
-      </c>
-      <c r="E13" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="F13" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="G13" s="32" t="s">
-        <v>127</v>
-      </c>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="J13" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="K13" s="27"/>
-    </row>
-    <row r="14" spans="1:11" s="31" customFormat="1" ht="87" x14ac:dyDescent="0.35">
-      <c r="A14" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="D14" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="E14" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="F14" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="G14" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="H14" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="I14" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="J14" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="K14" s="30"/>
-    </row>
-    <row r="15" spans="1:11" s="31" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="D15" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="E15" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="F15" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="G15" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="H15" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="I15" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="J15" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="K15" s="30"/>
-    </row>
-    <row r="16" spans="1:11" s="31" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="D16" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="E16" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="F16" s="29" t="s">
-        <v>150</v>
-      </c>
-      <c r="G16" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="H16" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="I16" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="J16" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="K16" s="30"/>
-    </row>
-    <row r="17" spans="1:11" s="31" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="D17" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="E17" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="F17" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="G17" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="H17" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="I17" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="J17" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="K17" s="30"/>
-    </row>
-    <row r="18" spans="1:11" s="31" customFormat="1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A18" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="B18" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="D18" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="E18" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="F18" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="G18" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="H18" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="I18" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="J18" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="K18" s="30"/>
-    </row>
-    <row r="19" spans="1:11" s="31" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="32" t="s">
-        <v>106</v>
-      </c>
-      <c r="D19" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="E19" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="F19" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="G19" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="H19" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="I19" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="J19" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="K19" s="27"/>
-    </row>
-    <row r="20" spans="1:11" s="31" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="32" t="s">
-        <v>96</v>
-      </c>
-      <c r="D20" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="G20" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="H20" s="32" t="s">
-        <v>112</v>
-      </c>
-      <c r="I20" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="J20" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="K20" s="27"/>
-    </row>
-    <row r="21" spans="1:11" s="31" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="D21" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="G21" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="H21" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="I21" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="J21" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="K21" s="30"/>
-    </row>
-    <row r="22" spans="1:11" s="31" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="B22" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="D22" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="32" t="s">
-        <v>153</v>
-      </c>
-      <c r="H22" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="I22" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="J22" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="K22" s="27"/>
-    </row>
-    <row r="23" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="11"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="16"/>
-    </row>
-    <row r="24" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="11"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="16"/>
-    </row>
-    <row r="25" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="11"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="16"/>
-    </row>
-    <row r="26" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="11"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="16"/>
-    </row>
-    <row r="27" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="11"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="16"/>
-    </row>
-    <row r="28" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="11"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="16"/>
-    </row>
-    <row r="29" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="11"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="16"/>
-    </row>
-    <row r="30" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="11"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="16"/>
-    </row>
-    <row r="31" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="11"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="16"/>
-    </row>
-    <row r="32" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="11"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="16"/>
-    </row>
-    <row r="33" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="11"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="16"/>
-    </row>
-    <row r="34" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="18"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="19"/>
-      <c r="K34" s="22"/>
-    </row>
-    <row r="35" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="23"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23"/>
-      <c r="K35" s="23"/>
-    </row>
-    <row r="36" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="23"/>
-      <c r="B36" s="23"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="23"/>
-      <c r="J36" s="23"/>
-      <c r="K36" s="23"/>
-    </row>
-    <row r="37" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="23"/>
-      <c r="B37" s="23"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="23"/>
-      <c r="J37" s="23"/>
-      <c r="K37" s="23"/>
-    </row>
-    <row r="38" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="23"/>
-      <c r="B38" s="23"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="23"/>
-      <c r="J38" s="23"/>
-      <c r="K38" s="23"/>
+      <c r="E23" s="74" t="s">
+        <v>202</v>
+      </c>
+      <c r="F23" s="86" t="s">
+        <v>203</v>
+      </c>
+      <c r="G23" s="86"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="44"/>
+    </row>
+    <row r="24" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="39"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="44"/>
+    </row>
+    <row r="25" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="39"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="44"/>
+    </row>
+    <row r="26" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="39"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="44"/>
+    </row>
+    <row r="27" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="39"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="44"/>
+    </row>
+    <row r="28" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="39"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="44"/>
+    </row>
+    <row r="29" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="39"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="44"/>
+    </row>
+    <row r="30" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="39"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="44"/>
+    </row>
+    <row r="31" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="39"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="44"/>
+    </row>
+    <row r="32" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="39"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="44"/>
+    </row>
+    <row r="33" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="39"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="40"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="44"/>
+    </row>
+    <row r="34" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="46"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
+      <c r="I34" s="47"/>
+      <c r="J34" s="47"/>
+      <c r="K34" s="50"/>
+    </row>
+    <row r="35" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C35" s="51"/>
+      <c r="D35" s="52"/>
+      <c r="G35" s="53"/>
+      <c r="H35" s="53"/>
+    </row>
+    <row r="36" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C36" s="51"/>
+      <c r="D36" s="52"/>
+    </row>
+    <row r="37" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C37" s="51"/>
+      <c r="D37" s="52"/>
+    </row>
+    <row r="38" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C38" s="51"/>
+      <c r="D38" s="52"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2757,4 +3881,2709 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31059707-BE23-421F-AC1E-5A2342EEA303}">
+  <dimension ref="A1:K39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.08984375" style="9" customWidth="1"/>
+    <col min="5" max="5" width="34.90625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="21.453125" style="9" customWidth="1"/>
+    <col min="7" max="7" width="34.6328125" style="9" customWidth="1"/>
+    <col min="8" max="8" width="35.90625" style="9" customWidth="1"/>
+    <col min="9" max="9" width="9" style="9" customWidth="1"/>
+    <col min="10" max="10" width="8.7265625" style="9"/>
+    <col min="11" max="11" width="11.90625" style="9" customWidth="1"/>
+    <col min="12" max="16384" width="8.7265625" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="10"/>
+      <c r="B2" s="69" t="s">
+        <v>185</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="14"/>
+    </row>
+    <row r="3" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="59" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="60" t="s">
+        <v>159</v>
+      </c>
+      <c r="D3" s="60" t="s">
+        <v>163</v>
+      </c>
+      <c r="E3" s="59" t="s">
+        <v>160</v>
+      </c>
+      <c r="F3" s="59" t="s">
+        <v>130</v>
+      </c>
+      <c r="G3" s="60" t="s">
+        <v>162</v>
+      </c>
+      <c r="H3" s="60" t="s">
+        <v>161</v>
+      </c>
+      <c r="I3" s="59" t="s">
+        <v>132</v>
+      </c>
+      <c r="J3" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" s="61"/>
+    </row>
+    <row r="4" spans="1:11" s="54" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="56" t="s">
+        <v>164</v>
+      </c>
+      <c r="D4" s="56" t="s">
+        <v>165</v>
+      </c>
+      <c r="E4" s="56" t="s">
+        <v>166</v>
+      </c>
+      <c r="F4" s="55" t="s">
+        <v>130</v>
+      </c>
+      <c r="G4" s="56" t="s">
+        <v>167</v>
+      </c>
+      <c r="H4" s="56" t="s">
+        <v>168</v>
+      </c>
+      <c r="I4" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="K4" s="57"/>
+    </row>
+    <row r="5" spans="1:11" s="54" customFormat="1" ht="174" x14ac:dyDescent="0.35">
+      <c r="A5" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="56" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" s="56" t="s">
+        <v>172</v>
+      </c>
+      <c r="F5" s="56" t="s">
+        <v>169</v>
+      </c>
+      <c r="G5" s="56" t="s">
+        <v>170</v>
+      </c>
+      <c r="H5" s="56" t="s">
+        <v>171</v>
+      </c>
+      <c r="I5" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="K5" s="57"/>
+    </row>
+    <row r="6" spans="1:11" s="54" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="56" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="56" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6" s="55" t="s">
+        <v>130</v>
+      </c>
+      <c r="G6" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="H6" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="I6" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="K6" s="57"/>
+    </row>
+    <row r="7" spans="1:11" s="54" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="56" t="s">
+        <v>173</v>
+      </c>
+      <c r="D7" s="56" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" s="56" t="s">
+        <v>85</v>
+      </c>
+      <c r="F7" s="55" t="s">
+        <v>174</v>
+      </c>
+      <c r="G7" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="H7" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="I7" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="K7" s="57"/>
+    </row>
+    <row r="8" spans="1:11" s="54" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="56" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" s="56" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" s="56" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8" s="56" t="s">
+        <v>175</v>
+      </c>
+      <c r="G8" s="56" t="s">
+        <v>146</v>
+      </c>
+      <c r="H8" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="I8" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="K8" s="57"/>
+    </row>
+    <row r="9" spans="1:11" s="54" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="56" t="s">
+        <v>144</v>
+      </c>
+      <c r="D9" s="56" t="s">
+        <v>124</v>
+      </c>
+      <c r="E9" s="56" t="s">
+        <v>102</v>
+      </c>
+      <c r="F9" s="55" t="s">
+        <v>178</v>
+      </c>
+      <c r="G9" s="56" t="s">
+        <v>147</v>
+      </c>
+      <c r="H9" s="56" t="s">
+        <v>148</v>
+      </c>
+      <c r="I9" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" s="65" t="s">
+        <v>72</v>
+      </c>
+      <c r="K9" s="57"/>
+    </row>
+    <row r="10" spans="1:11" s="54" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="56" t="s">
+        <v>145</v>
+      </c>
+      <c r="D10" s="56" t="s">
+        <v>124</v>
+      </c>
+      <c r="E10" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="F10" s="55" t="s">
+        <v>177</v>
+      </c>
+      <c r="G10" s="56" t="s">
+        <v>149</v>
+      </c>
+      <c r="H10" s="66" t="s">
+        <v>152</v>
+      </c>
+      <c r="I10" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" s="65" t="s">
+        <v>72</v>
+      </c>
+      <c r="K10" s="57"/>
+    </row>
+    <row r="11" spans="1:11" s="54" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="56" t="s">
+        <v>123</v>
+      </c>
+      <c r="D11" s="56" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" s="56" t="s">
+        <v>143</v>
+      </c>
+      <c r="F11" s="55" t="s">
+        <v>176</v>
+      </c>
+      <c r="G11" s="56" t="s">
+        <v>150</v>
+      </c>
+      <c r="H11" s="56" t="s">
+        <v>152</v>
+      </c>
+      <c r="I11" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" s="65" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="57"/>
+    </row>
+    <row r="12" spans="1:11" s="54" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="56" t="s">
+        <v>110</v>
+      </c>
+      <c r="D12" s="56" t="s">
+        <v>124</v>
+      </c>
+      <c r="E12" s="56" t="s">
+        <v>104</v>
+      </c>
+      <c r="F12" s="55"/>
+      <c r="G12" s="56" t="s">
+        <v>153</v>
+      </c>
+      <c r="H12" s="56" t="s">
+        <v>154</v>
+      </c>
+      <c r="I12" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="J12" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="K12" s="57"/>
+    </row>
+    <row r="13" spans="1:11" s="54" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="58" t="s">
+        <v>111</v>
+      </c>
+      <c r="D13" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="E13" s="58" t="s">
+        <v>155</v>
+      </c>
+      <c r="F13" s="54" t="s">
+        <v>130</v>
+      </c>
+      <c r="G13" s="58" t="s">
+        <v>156</v>
+      </c>
+      <c r="I13" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="J13" s="62" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="54" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+      <c r="A14" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="56" t="s">
+        <v>157</v>
+      </c>
+      <c r="D14" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="E14" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="55" t="s">
+        <v>130</v>
+      </c>
+      <c r="G14" s="56" t="s">
+        <v>63</v>
+      </c>
+      <c r="H14" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="I14" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="J14" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="K14" s="57"/>
+    </row>
+    <row r="15" spans="1:11" s="54" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="56" t="s">
+        <v>158</v>
+      </c>
+      <c r="D15" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" s="56" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="55" t="s">
+        <v>130</v>
+      </c>
+      <c r="G15" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="H15" s="56" t="s">
+        <v>66</v>
+      </c>
+      <c r="I15" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="J15" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="K15" s="57"/>
+    </row>
+    <row r="16" spans="1:11" s="54" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="D16" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="E16" s="56" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" s="56" t="s">
+        <v>179</v>
+      </c>
+      <c r="G16" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="H16" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="I16" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="J16" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="K16" s="57"/>
+    </row>
+    <row r="17" spans="1:11" s="54" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="56" t="s">
+        <v>115</v>
+      </c>
+      <c r="D17" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="E17" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" s="55" t="s">
+        <v>130</v>
+      </c>
+      <c r="G17" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="H17" s="56" t="s">
+        <v>78</v>
+      </c>
+      <c r="I17" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="J17" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="K17" s="57"/>
+    </row>
+    <row r="18" spans="1:11" s="54" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A18" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="56" t="s">
+        <v>117</v>
+      </c>
+      <c r="D18" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" s="55" t="s">
+        <v>130</v>
+      </c>
+      <c r="G18" s="56" t="s">
+        <v>76</v>
+      </c>
+      <c r="H18" s="56" t="s">
+        <v>77</v>
+      </c>
+      <c r="I18" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="J18" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="K18" s="57"/>
+    </row>
+    <row r="19" spans="1:11" s="54" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="58" t="s">
+        <v>128</v>
+      </c>
+      <c r="D19" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="E19" s="54" t="s">
+        <v>133</v>
+      </c>
+      <c r="F19" s="54" t="s">
+        <v>130</v>
+      </c>
+      <c r="G19" s="58" t="s">
+        <v>127</v>
+      </c>
+      <c r="H19" s="58" t="s">
+        <v>131</v>
+      </c>
+      <c r="I19" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="J19" s="62" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="54" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="58" t="s">
+        <v>106</v>
+      </c>
+      <c r="D20" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="F20" s="54" t="s">
+        <v>130</v>
+      </c>
+      <c r="G20" s="58" t="s">
+        <v>134</v>
+      </c>
+      <c r="H20" s="58" t="s">
+        <v>135</v>
+      </c>
+      <c r="I20" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="J20" s="62" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="54" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="D21" s="56" t="s">
+        <v>100</v>
+      </c>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55" t="s">
+        <v>130</v>
+      </c>
+      <c r="G21" s="56" t="s">
+        <v>136</v>
+      </c>
+      <c r="H21" s="56" t="s">
+        <v>137</v>
+      </c>
+      <c r="I21" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="J21" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="K21" s="57"/>
+    </row>
+    <row r="22" spans="1:11" s="54" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="58" t="s">
+        <v>180</v>
+      </c>
+      <c r="D22" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="G22" s="58" t="s">
+        <v>182</v>
+      </c>
+      <c r="H22" s="58" t="s">
+        <v>181</v>
+      </c>
+      <c r="I22" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="J22" s="62" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="39"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="44"/>
+    </row>
+    <row r="24" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="39"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="44"/>
+    </row>
+    <row r="25" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="39"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="44"/>
+    </row>
+    <row r="26" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="39"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="44"/>
+    </row>
+    <row r="27" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="39"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="44"/>
+    </row>
+    <row r="28" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="39"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="44"/>
+    </row>
+    <row r="29" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="39"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="44"/>
+    </row>
+    <row r="30" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="39"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="44"/>
+    </row>
+    <row r="31" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="39"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="44"/>
+    </row>
+    <row r="32" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="39"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="44"/>
+    </row>
+    <row r="33" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="39"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="40"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="44"/>
+    </row>
+    <row r="34" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="46"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
+      <c r="I34" s="47"/>
+      <c r="J34" s="47"/>
+      <c r="K34" s="50"/>
+    </row>
+    <row r="35" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C35" s="51"/>
+      <c r="D35" s="52"/>
+      <c r="G35" s="53"/>
+      <c r="H35" s="53"/>
+    </row>
+    <row r="36" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C36" s="51"/>
+      <c r="D36" s="52"/>
+    </row>
+    <row r="37" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C37" s="51"/>
+      <c r="D37" s="52"/>
+    </row>
+    <row r="38" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C38" s="51"/>
+      <c r="D38" s="52"/>
+    </row>
+    <row r="39" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="9"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" location="'Test Scenarios'!A1" display="&lt;&lt;Test Scenarios" xr:uid="{F269DED9-E794-4734-8F4E-ED167150EDBB}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74861ACA-D0CC-4FE1-872D-44356349C0AE}">
+  <dimension ref="A1:K39"/>
+  <sheetViews>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.08984375" style="9" customWidth="1"/>
+    <col min="5" max="5" width="34.90625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="8.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.6328125" style="9" customWidth="1"/>
+    <col min="8" max="8" width="35.90625" style="9" customWidth="1"/>
+    <col min="9" max="9" width="9" style="9" customWidth="1"/>
+    <col min="10" max="10" width="8.7265625" style="9"/>
+    <col min="11" max="11" width="11.90625" style="9" customWidth="1"/>
+    <col min="12" max="16384" width="8.7265625" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="14"/>
+    </row>
+    <row r="5" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="16"/>
+    </row>
+    <row r="6" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" s="11"/>
+      <c r="G6" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K6" s="14"/>
+    </row>
+    <row r="7" spans="1:11" ht="145" x14ac:dyDescent="0.35">
+      <c r="A7" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="11"/>
+      <c r="G7" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="F8" s="11"/>
+      <c r="G8" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="14"/>
+    </row>
+    <row r="9" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K9" s="14"/>
+    </row>
+    <row r="10" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="F10" s="11"/>
+      <c r="G10" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K10" s="14"/>
+    </row>
+    <row r="11" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="14"/>
+    </row>
+    <row r="12" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="14"/>
+    </row>
+    <row r="13" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="14"/>
+    </row>
+    <row r="14" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="14"/>
+    </row>
+    <row r="15" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="87" x14ac:dyDescent="0.35">
+      <c r="A16" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="11"/>
+      <c r="G16" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="14"/>
+    </row>
+    <row r="17" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="11"/>
+      <c r="G17" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K17" s="14"/>
+    </row>
+    <row r="18" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" s="11"/>
+      <c r="G18" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="K18" s="14"/>
+    </row>
+    <row r="19" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F19" s="11"/>
+      <c r="G19" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="K19" s="14"/>
+    </row>
+    <row r="20" spans="1:11" ht="87" x14ac:dyDescent="0.35">
+      <c r="A20" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="14"/>
+    </row>
+    <row r="21" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+      <c r="A21" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21" s="11"/>
+      <c r="G21" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K21" s="14"/>
+    </row>
+    <row r="22" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" s="24" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="D23" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="E23" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="F23" s="29"/>
+      <c r="G23" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="H23" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="I23" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="J23" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="K23" s="32"/>
+    </row>
+    <row r="24" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="D24" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="E24" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="F24" s="29"/>
+      <c r="G24" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="H24" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="32"/>
+    </row>
+    <row r="25" spans="1:11" s="24" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="D25" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="E25" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="F25" s="29"/>
+      <c r="G25" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="H25" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="I25" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="J25" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="K25" s="32"/>
+    </row>
+    <row r="26" spans="1:11" s="24" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="D26" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="E26" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="F26" s="29"/>
+      <c r="G26" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="H26" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="I26" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="J26" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="K26" s="32"/>
+    </row>
+    <row r="27" spans="1:11" s="24" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+      <c r="A27" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="D27" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="32"/>
+    </row>
+    <row r="28" spans="1:11" s="24" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="D28" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="32"/>
+    </row>
+    <row r="29" spans="1:11" s="24" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="D29" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="32"/>
+    </row>
+    <row r="30" spans="1:11" ht="87" x14ac:dyDescent="0.35">
+      <c r="A30" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="14"/>
+    </row>
+    <row r="31" spans="1:11" s="24" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="D31" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="E31" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="32"/>
+    </row>
+    <row r="32" spans="1:11" s="24" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="D32" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="E32" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="32"/>
+    </row>
+    <row r="33" spans="1:11" s="24" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="D33" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="E33" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="32"/>
+    </row>
+    <row r="34" spans="1:11" s="24" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="D34" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="34"/>
+      <c r="J34" s="34"/>
+      <c r="K34" s="37"/>
+    </row>
+    <row r="35" spans="1:11" s="24" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="D35" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="F35" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="G35" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="H35" s="27" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" s="24" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="D36" s="26" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" s="24" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A37" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="D37" s="26" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" s="24" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="D38" s="26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A39" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89DFD3BB-8F9A-4143-BD01-3E11FDE38745}">
+  <dimension ref="A1:K37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J14" sqref="J14:J21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.08984375" style="9" customWidth="1"/>
+    <col min="5" max="5" width="34.90625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="8.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.6328125" style="9" customWidth="1"/>
+    <col min="8" max="8" width="35.90625" style="9" customWidth="1"/>
+    <col min="9" max="9" width="9" style="9" customWidth="1"/>
+    <col min="10" max="10" width="8.7265625" style="9"/>
+    <col min="11" max="11" width="11.90625" style="9" customWidth="1"/>
+    <col min="12" max="16384" width="8.7265625" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="54" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="58" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" s="54" t="s">
+        <v>133</v>
+      </c>
+      <c r="F2" s="54" t="s">
+        <v>130</v>
+      </c>
+      <c r="G2" s="58" t="s">
+        <v>127</v>
+      </c>
+      <c r="H2" s="58" t="s">
+        <v>131</v>
+      </c>
+      <c r="I2" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="J2" s="62" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="54" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="58" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="F3" s="54" t="s">
+        <v>130</v>
+      </c>
+      <c r="G3" s="58" t="s">
+        <v>134</v>
+      </c>
+      <c r="H3" s="58" t="s">
+        <v>135</v>
+      </c>
+      <c r="I3" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="J3" s="62" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="54" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="56" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55" t="s">
+        <v>130</v>
+      </c>
+      <c r="G4" s="56" t="s">
+        <v>136</v>
+      </c>
+      <c r="H4" s="56" t="s">
+        <v>137</v>
+      </c>
+      <c r="I4" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="K4" s="57"/>
+    </row>
+    <row r="5" spans="1:11" s="54" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="59" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="60" t="s">
+        <v>129</v>
+      </c>
+      <c r="D5" s="60" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59" t="s">
+        <v>130</v>
+      </c>
+      <c r="G5" s="60" t="s">
+        <v>139</v>
+      </c>
+      <c r="H5" s="60" t="s">
+        <v>140</v>
+      </c>
+      <c r="I5" s="59" t="s">
+        <v>132</v>
+      </c>
+      <c r="J5" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="K5" s="61"/>
+    </row>
+    <row r="6" spans="1:11" s="54" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" s="56" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" s="55" t="s">
+        <v>130</v>
+      </c>
+      <c r="G6" s="56" t="s">
+        <v>141</v>
+      </c>
+      <c r="H6" s="56" t="s">
+        <v>142</v>
+      </c>
+      <c r="I6" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="K6" s="57"/>
+    </row>
+    <row r="7" spans="1:11" s="54" customFormat="1" ht="145" x14ac:dyDescent="0.35">
+      <c r="A7" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="56" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="55"/>
+      <c r="G7" s="56" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="I7" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="K7" s="57"/>
+    </row>
+    <row r="8" spans="1:11" s="54" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="56" t="s">
+        <v>119</v>
+      </c>
+      <c r="D8" s="56" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="F8" s="55"/>
+      <c r="G8" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="H8" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="I8" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="K8" s="57"/>
+    </row>
+    <row r="9" spans="1:11" s="54" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="56" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9" s="56" t="s">
+        <v>97</v>
+      </c>
+      <c r="E9" s="56" t="s">
+        <v>85</v>
+      </c>
+      <c r="F9" s="55"/>
+      <c r="G9" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="H9" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="I9" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="K9" s="57"/>
+    </row>
+    <row r="10" spans="1:11" s="54" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="56" t="s">
+        <v>121</v>
+      </c>
+      <c r="D10" s="56" t="s">
+        <v>97</v>
+      </c>
+      <c r="E10" s="56" t="s">
+        <v>87</v>
+      </c>
+      <c r="F10" s="55"/>
+      <c r="G10" s="56" t="s">
+        <v>146</v>
+      </c>
+      <c r="H10" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="I10" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="K10" s="57"/>
+    </row>
+    <row r="11" spans="1:11" s="54" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="56" t="s">
+        <v>144</v>
+      </c>
+      <c r="D11" s="56" t="s">
+        <v>124</v>
+      </c>
+      <c r="E11" s="56" t="s">
+        <v>102</v>
+      </c>
+      <c r="F11" s="55"/>
+      <c r="G11" s="56" t="s">
+        <v>147</v>
+      </c>
+      <c r="H11" s="56" t="s">
+        <v>148</v>
+      </c>
+      <c r="I11" s="55"/>
+      <c r="J11" s="65" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="57"/>
+    </row>
+    <row r="12" spans="1:11" s="54" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="56" t="s">
+        <v>145</v>
+      </c>
+      <c r="D12" s="56" t="s">
+        <v>124</v>
+      </c>
+      <c r="E12" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="F12" s="55"/>
+      <c r="G12" s="56" t="s">
+        <v>149</v>
+      </c>
+      <c r="H12" s="56" t="s">
+        <v>151</v>
+      </c>
+      <c r="I12" s="55"/>
+      <c r="J12" s="65" t="s">
+        <v>72</v>
+      </c>
+      <c r="K12" s="57"/>
+    </row>
+    <row r="13" spans="1:11" s="54" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="56" t="s">
+        <v>123</v>
+      </c>
+      <c r="D13" s="56" t="s">
+        <v>98</v>
+      </c>
+      <c r="E13" s="56" t="s">
+        <v>143</v>
+      </c>
+      <c r="F13" s="55"/>
+      <c r="G13" s="56" t="s">
+        <v>150</v>
+      </c>
+      <c r="H13" s="56" t="s">
+        <v>152</v>
+      </c>
+      <c r="I13" s="55"/>
+      <c r="J13" s="65" t="s">
+        <v>72</v>
+      </c>
+      <c r="K13" s="57"/>
+    </row>
+    <row r="14" spans="1:11" s="54" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="56" t="s">
+        <v>110</v>
+      </c>
+      <c r="D14" s="56" t="s">
+        <v>124</v>
+      </c>
+      <c r="E14" s="56" t="s">
+        <v>104</v>
+      </c>
+      <c r="F14" s="55"/>
+      <c r="G14" s="56" t="s">
+        <v>153</v>
+      </c>
+      <c r="H14" s="56" t="s">
+        <v>154</v>
+      </c>
+      <c r="I14" s="55"/>
+      <c r="J14" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="K14" s="57"/>
+    </row>
+    <row r="15" spans="1:11" s="54" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="58" t="s">
+        <v>111</v>
+      </c>
+      <c r="D15" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15" s="58" t="s">
+        <v>155</v>
+      </c>
+      <c r="G15" s="58" t="s">
+        <v>156</v>
+      </c>
+      <c r="J15" s="62" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="54" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+      <c r="A16" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="56" t="s">
+        <v>157</v>
+      </c>
+      <c r="D16" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="E16" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="55"/>
+      <c r="G16" s="56" t="s">
+        <v>63</v>
+      </c>
+      <c r="H16" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="I16" s="55"/>
+      <c r="J16" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="K16" s="57"/>
+    </row>
+    <row r="17" spans="1:11" s="54" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="56" t="s">
+        <v>158</v>
+      </c>
+      <c r="D17" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="E17" s="56" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="55"/>
+      <c r="G17" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="H17" s="56" t="s">
+        <v>66</v>
+      </c>
+      <c r="I17" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="J17" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="K17" s="57"/>
+    </row>
+    <row r="18" spans="1:11" s="54" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="D18" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18" s="56" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" s="55"/>
+      <c r="G18" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="H18" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="I18" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="J18" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="K18" s="57"/>
+    </row>
+    <row r="19" spans="1:11" s="54" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="56" t="s">
+        <v>115</v>
+      </c>
+      <c r="D19" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="E19" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="F19" s="55"/>
+      <c r="G19" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="H19" s="56" t="s">
+        <v>78</v>
+      </c>
+      <c r="I19" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="J19" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="K19" s="57"/>
+    </row>
+    <row r="20" spans="1:11" s="54" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A20" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="56" t="s">
+        <v>117</v>
+      </c>
+      <c r="D20" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="F20" s="55"/>
+      <c r="G20" s="56" t="s">
+        <v>76</v>
+      </c>
+      <c r="H20" s="56" t="s">
+        <v>77</v>
+      </c>
+      <c r="I20" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="J20" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="K20" s="57"/>
+    </row>
+    <row r="21" spans="1:11" s="54" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="58" t="s">
+        <v>118</v>
+      </c>
+      <c r="D21" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="G21" s="58" t="s">
+        <v>138</v>
+      </c>
+      <c r="J21" s="62" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="39"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="44"/>
+    </row>
+    <row r="23" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="39"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="44"/>
+    </row>
+    <row r="24" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="39"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="44"/>
+    </row>
+    <row r="25" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="39"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="44"/>
+    </row>
+    <row r="26" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="39"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="44"/>
+    </row>
+    <row r="27" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="39"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="44"/>
+    </row>
+    <row r="28" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="39"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="44"/>
+    </row>
+    <row r="29" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="39"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="44"/>
+    </row>
+    <row r="30" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="39"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="44"/>
+    </row>
+    <row r="31" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="39"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="44"/>
+    </row>
+    <row r="32" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="39"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="44"/>
+    </row>
+    <row r="33" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="46"/>
+      <c r="B33" s="47"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="47"/>
+      <c r="I33" s="47"/>
+      <c r="J33" s="47"/>
+      <c r="K33" s="50"/>
+    </row>
+    <row r="34" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C34" s="51"/>
+      <c r="D34" s="52"/>
+      <c r="G34" s="53"/>
+      <c r="H34" s="53"/>
+    </row>
+    <row r="35" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C35" s="51"/>
+      <c r="D35" s="52"/>
+    </row>
+    <row r="36" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C36" s="51"/>
+      <c r="D36" s="52"/>
+    </row>
+    <row r="37" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C37" s="51"/>
+      <c r="D37" s="52"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>